--- a/data/clean data.xlsx
+++ b/data/clean data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>mage</t>
   </si>
@@ -104,6 +104,39 @@
   </si>
   <si>
     <t>o_bwght</t>
+  </si>
+  <si>
+    <t>fcol</t>
+  </si>
+  <si>
+    <t>mcol</t>
+  </si>
+  <si>
+    <t>fwmw</t>
+  </si>
+  <si>
+    <t>fwmb</t>
+  </si>
+  <si>
+    <t>fwmo</t>
+  </si>
+  <si>
+    <t>fbmw</t>
+  </si>
+  <si>
+    <t>fbmb</t>
+  </si>
+  <si>
+    <t>fbmo</t>
+  </si>
+  <si>
+    <t>fomw</t>
+  </si>
+  <si>
+    <t>fomb</t>
+  </si>
+  <si>
+    <t>fomo</t>
   </si>
 </sst>
 </file>
@@ -461,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE197"/>
+  <dimension ref="A1:AP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +591,41 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:42">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -653,8 +719,41 @@
       <c r="AE2">
         <v>-1</v>
       </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:42">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -748,8 +847,41 @@
       <c r="AE3">
         <v>-1</v>
       </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:42">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -843,8 +975,41 @@
       <c r="AE4">
         <v>-1</v>
       </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:42">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -938,8 +1103,41 @@
       <c r="AE5">
         <v>0</v>
       </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:42">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1033,8 +1231,41 @@
       <c r="AE6">
         <v>0</v>
       </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:42">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1128,8 +1359,41 @@
       <c r="AE7">
         <v>0</v>
       </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:42">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1223,8 +1487,41 @@
       <c r="AE8">
         <v>0</v>
       </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:42">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1318,8 +1615,41 @@
       <c r="AE9">
         <v>0</v>
       </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:42">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1413,8 +1743,41 @@
       <c r="AE10">
         <v>0</v>
       </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:42">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1508,8 +1871,41 @@
       <c r="AE11">
         <v>0</v>
       </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:42">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1603,8 +1999,41 @@
       <c r="AE12">
         <v>0</v>
       </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:42">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1698,8 +2127,41 @@
       <c r="AE13">
         <v>0</v>
       </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:42">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1793,8 +2255,41 @@
       <c r="AE14">
         <v>0</v>
       </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:42">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1888,8 +2383,41 @@
       <c r="AE15">
         <v>0</v>
       </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:42">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1983,8 +2511,41 @@
       <c r="AE16">
         <v>0</v>
       </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:42">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2078,8 +2639,41 @@
       <c r="AE17">
         <v>0</v>
       </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:42">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2173,8 +2767,41 @@
       <c r="AE18">
         <v>0</v>
       </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:42">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2268,8 +2895,41 @@
       <c r="AE19">
         <v>0</v>
       </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:42">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2363,8 +3023,41 @@
       <c r="AE20">
         <v>0</v>
       </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:42">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2458,8 +3151,41 @@
       <c r="AE21">
         <v>0</v>
       </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:42">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2553,8 +3279,41 @@
       <c r="AE22">
         <v>0</v>
       </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:42">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2648,8 +3407,41 @@
       <c r="AE23">
         <v>0</v>
       </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:42">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2743,8 +3535,41 @@
       <c r="AE24">
         <v>0</v>
       </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:42">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2838,8 +3663,41 @@
       <c r="AE25">
         <v>0</v>
       </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:42">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2933,8 +3791,41 @@
       <c r="AE26">
         <v>0</v>
       </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:42">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3028,8 +3919,41 @@
       <c r="AE27">
         <v>0</v>
       </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:42">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3123,8 +4047,41 @@
       <c r="AE28">
         <v>0</v>
       </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:42">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3218,8 +4175,41 @@
       <c r="AE29">
         <v>0</v>
       </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:42">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3313,8 +4303,41 @@
       <c r="AE30">
         <v>0</v>
       </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:42">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3408,8 +4431,41 @@
       <c r="AE31">
         <v>0</v>
       </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:42">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3503,8 +4559,41 @@
       <c r="AE32">
         <v>0</v>
       </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:42">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3598,8 +4687,41 @@
       <c r="AE33">
         <v>0</v>
       </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:42">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3693,8 +4815,41 @@
       <c r="AE34">
         <v>0</v>
       </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:42">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3788,8 +4943,41 @@
       <c r="AE35">
         <v>0</v>
       </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:42">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3883,8 +5071,41 @@
       <c r="AE36">
         <v>0</v>
       </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:42">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3978,8 +5199,41 @@
       <c r="AE37">
         <v>0</v>
       </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:42">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4073,8 +5327,41 @@
       <c r="AE38">
         <v>0</v>
       </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:42">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4168,8 +5455,41 @@
       <c r="AE39">
         <v>0</v>
       </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:42">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4263,8 +5583,41 @@
       <c r="AE40">
         <v>0</v>
       </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:42">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4358,8 +5711,41 @@
       <c r="AE41">
         <v>0</v>
       </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:42">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4453,8 +5839,41 @@
       <c r="AE42">
         <v>0</v>
       </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:42">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4548,8 +5967,41 @@
       <c r="AE43">
         <v>0</v>
       </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:42">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4643,8 +6095,41 @@
       <c r="AE44">
         <v>0</v>
       </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:42">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4738,8 +6223,41 @@
       <c r="AE45">
         <v>0</v>
       </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:42">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4833,8 +6351,41 @@
       <c r="AE46">
         <v>0</v>
       </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:42">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4928,8 +6479,41 @@
       <c r="AE47">
         <v>0</v>
       </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:42">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5023,8 +6607,41 @@
       <c r="AE48">
         <v>0</v>
       </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:42">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5118,8 +6735,41 @@
       <c r="AE49">
         <v>0</v>
       </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:42">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5213,8 +6863,41 @@
       <c r="AE50">
         <v>0</v>
       </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:42">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5308,8 +6991,41 @@
       <c r="AE51">
         <v>0</v>
       </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:42">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5403,8 +7119,41 @@
       <c r="AE52">
         <v>0</v>
       </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:42">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5498,8 +7247,41 @@
       <c r="AE53">
         <v>0</v>
       </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:42">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5593,8 +7375,41 @@
       <c r="AE54">
         <v>0</v>
       </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:42">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5688,8 +7503,41 @@
       <c r="AE55">
         <v>0</v>
       </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:42">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5783,8 +7631,41 @@
       <c r="AE56">
         <v>0</v>
       </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <v>1</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:42">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5878,8 +7759,41 @@
       <c r="AE57">
         <v>0</v>
       </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:42">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5973,8 +7887,41 @@
       <c r="AE58">
         <v>0</v>
       </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:42">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6068,8 +8015,41 @@
       <c r="AE59">
         <v>0</v>
       </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:42">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6163,8 +8143,41 @@
       <c r="AE60">
         <v>0</v>
       </c>
+      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:42">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6258,8 +8271,41 @@
       <c r="AE61">
         <v>0</v>
       </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:42">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6353,8 +8399,41 @@
       <c r="AE62">
         <v>0</v>
       </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:42">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6448,8 +8527,41 @@
       <c r="AE63">
         <v>0</v>
       </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:42">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6543,8 +8655,41 @@
       <c r="AE64">
         <v>0</v>
       </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:42">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6638,8 +8783,41 @@
       <c r="AE65">
         <v>0</v>
       </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>1</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:42">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6733,8 +8911,41 @@
       <c r="AE66">
         <v>0</v>
       </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:42">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6828,8 +9039,41 @@
       <c r="AE67">
         <v>0</v>
       </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:42">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6923,8 +9167,41 @@
       <c r="AE68">
         <v>0</v>
       </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:42">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7018,8 +9295,41 @@
       <c r="AE69">
         <v>0</v>
       </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69">
+        <v>1</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:42">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7113,8 +9423,41 @@
       <c r="AE70">
         <v>0</v>
       </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:42">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7208,8 +9551,41 @@
       <c r="AE71">
         <v>0</v>
       </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:42">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7303,8 +9679,41 @@
       <c r="AE72">
         <v>0</v>
       </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:42">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7398,8 +9807,41 @@
       <c r="AE73">
         <v>0</v>
       </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AG73">
+        <v>1</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:42">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7493,8 +9935,41 @@
       <c r="AE74">
         <v>0</v>
       </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:42">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7588,8 +10063,41 @@
       <c r="AE75">
         <v>0</v>
       </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:42">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7683,8 +10191,41 @@
       <c r="AE76">
         <v>0</v>
       </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+      <c r="AG76">
+        <v>1</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>1</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:42">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7778,8 +10319,41 @@
       <c r="AE77">
         <v>0</v>
       </c>
+      <c r="AF77">
+        <v>1</v>
+      </c>
+      <c r="AG77">
+        <v>1</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:42">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7873,8 +10447,41 @@
       <c r="AE78">
         <v>0</v>
       </c>
+      <c r="AF78">
+        <v>1</v>
+      </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:42">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7968,8 +10575,41 @@
       <c r="AE79">
         <v>0</v>
       </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:42">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8063,8 +10703,41 @@
       <c r="AE80">
         <v>0</v>
       </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:42">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8158,8 +10831,41 @@
       <c r="AE81">
         <v>0</v>
       </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:42">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8253,8 +10959,41 @@
       <c r="AE82">
         <v>0</v>
       </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:42">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8348,8 +11087,41 @@
       <c r="AE83">
         <v>0</v>
       </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>1</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:42">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8443,8 +11215,41 @@
       <c r="AE84">
         <v>0</v>
       </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:42">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8538,8 +11343,41 @@
       <c r="AE85">
         <v>0</v>
       </c>
+      <c r="AF85">
+        <v>1</v>
+      </c>
+      <c r="AG85">
+        <v>1</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:42">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8633,8 +11471,41 @@
       <c r="AE86">
         <v>0</v>
       </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>1</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:42">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8728,8 +11599,41 @@
       <c r="AE87">
         <v>0</v>
       </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:42">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8823,8 +11727,41 @@
       <c r="AE88">
         <v>0</v>
       </c>
+      <c r="AF88">
+        <v>1</v>
+      </c>
+      <c r="AG88">
+        <v>1</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:42">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8918,8 +11855,41 @@
       <c r="AE89">
         <v>0</v>
       </c>
+      <c r="AF89">
+        <v>1</v>
+      </c>
+      <c r="AG89">
+        <v>1</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:42">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9013,8 +11983,41 @@
       <c r="AE90">
         <v>0</v>
       </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>1</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:42">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9108,8 +12111,41 @@
       <c r="AE91">
         <v>0</v>
       </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>1</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:42">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9203,8 +12239,41 @@
       <c r="AE92">
         <v>0</v>
       </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:42">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9298,8 +12367,41 @@
       <c r="AE93">
         <v>0</v>
       </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>1</v>
+      </c>
+      <c r="AH93">
+        <v>1</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>0</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:42">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9393,8 +12495,41 @@
       <c r="AE94">
         <v>0</v>
       </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>1</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:42">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9488,8 +12623,41 @@
       <c r="AE95">
         <v>0</v>
       </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:42">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9583,8 +12751,41 @@
       <c r="AE96">
         <v>0</v>
       </c>
+      <c r="AF96">
+        <v>1</v>
+      </c>
+      <c r="AG96">
+        <v>1</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:42">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9678,8 +12879,41 @@
       <c r="AE97">
         <v>0</v>
       </c>
+      <c r="AF97">
+        <v>1</v>
+      </c>
+      <c r="AG97">
+        <v>1</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>1</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>0</v>
+      </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:42">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9773,8 +13007,41 @@
       <c r="AE98">
         <v>0</v>
       </c>
+      <c r="AF98">
+        <v>1</v>
+      </c>
+      <c r="AG98">
+        <v>1</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>1</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:42">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9868,8 +13135,41 @@
       <c r="AE99">
         <v>0</v>
       </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>1</v>
+      </c>
+      <c r="AH99">
+        <v>1</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:42">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9963,8 +13263,41 @@
       <c r="AE100">
         <v>0</v>
       </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>0</v>
+      </c>
+      <c r="AO100">
+        <v>0</v>
+      </c>
+      <c r="AP100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:42">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10058,8 +13391,41 @@
       <c r="AE101">
         <v>0</v>
       </c>
+      <c r="AF101">
+        <v>1</v>
+      </c>
+      <c r="AG101">
+        <v>1</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <v>1</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:42">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10153,8 +13519,41 @@
       <c r="AE102">
         <v>0</v>
       </c>
+      <c r="AF102">
+        <v>1</v>
+      </c>
+      <c r="AG102">
+        <v>1</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:42">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10248,8 +13647,41 @@
       <c r="AE103">
         <v>0</v>
       </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:42">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10343,8 +13775,41 @@
       <c r="AE104">
         <v>0</v>
       </c>
+      <c r="AF104">
+        <v>1</v>
+      </c>
+      <c r="AG104">
+        <v>1</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>1</v>
+      </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:42">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10438,8 +13903,41 @@
       <c r="AE105">
         <v>0</v>
       </c>
+      <c r="AF105">
+        <v>1</v>
+      </c>
+      <c r="AG105">
+        <v>1</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>0</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:42">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10533,8 +14031,41 @@
       <c r="AE106">
         <v>0</v>
       </c>
+      <c r="AF106">
+        <v>1</v>
+      </c>
+      <c r="AG106">
+        <v>1</v>
+      </c>
+      <c r="AH106">
+        <v>1</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:42">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10628,8 +14159,41 @@
       <c r="AE107">
         <v>0</v>
       </c>
+      <c r="AF107">
+        <v>1</v>
+      </c>
+      <c r="AG107">
+        <v>1</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:42">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10723,8 +14287,41 @@
       <c r="AE108">
         <v>0</v>
       </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>1</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:42">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10818,8 +14415,41 @@
       <c r="AE109">
         <v>0</v>
       </c>
+      <c r="AF109">
+        <v>1</v>
+      </c>
+      <c r="AG109">
+        <v>1</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>0</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:42">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10913,8 +14543,41 @@
       <c r="AE110">
         <v>0</v>
       </c>
+      <c r="AF110">
+        <v>1</v>
+      </c>
+      <c r="AG110">
+        <v>1</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>1</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:42">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -11008,8 +14671,41 @@
       <c r="AE111">
         <v>0</v>
       </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:42">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -11103,8 +14799,41 @@
       <c r="AE112">
         <v>0</v>
       </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>1</v>
+      </c>
+      <c r="AN112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:42">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -11198,8 +14927,41 @@
       <c r="AE113">
         <v>0</v>
       </c>
+      <c r="AF113">
+        <v>1</v>
+      </c>
+      <c r="AG113">
+        <v>1</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>1</v>
+      </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:42">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -11293,8 +15055,41 @@
       <c r="AE114">
         <v>0</v>
       </c>
+      <c r="AF114">
+        <v>1</v>
+      </c>
+      <c r="AG114">
+        <v>1</v>
+      </c>
+      <c r="AH114">
+        <v>1</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>0</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:42">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -11388,8 +15183,41 @@
       <c r="AE115">
         <v>0</v>
       </c>
+      <c r="AF115">
+        <v>1</v>
+      </c>
+      <c r="AG115">
+        <v>1</v>
+      </c>
+      <c r="AH115">
+        <v>1</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:42">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -11483,8 +15311,41 @@
       <c r="AE116">
         <v>0</v>
       </c>
+      <c r="AF116">
+        <v>1</v>
+      </c>
+      <c r="AG116">
+        <v>1</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <v>0</v>
+      </c>
+      <c r="AP116">
+        <v>1</v>
+      </c>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:42">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -11578,8 +15439,41 @@
       <c r="AE117">
         <v>0</v>
       </c>
+      <c r="AF117">
+        <v>1</v>
+      </c>
+      <c r="AG117">
+        <v>1</v>
+      </c>
+      <c r="AH117">
+        <v>1</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:42">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -11673,8 +15567,41 @@
       <c r="AE118">
         <v>0</v>
       </c>
+      <c r="AF118">
+        <v>1</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>1</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:42">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -11768,8 +15695,41 @@
       <c r="AE119">
         <v>0</v>
       </c>
+      <c r="AF119">
+        <v>1</v>
+      </c>
+      <c r="AG119">
+        <v>1</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:42">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -11863,8 +15823,41 @@
       <c r="AE120">
         <v>0</v>
       </c>
+      <c r="AF120">
+        <v>1</v>
+      </c>
+      <c r="AG120">
+        <v>1</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>1</v>
+      </c>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:42">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -11958,8 +15951,41 @@
       <c r="AE121">
         <v>0</v>
       </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>1</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:42">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -12053,8 +16079,41 @@
       <c r="AE122">
         <v>0</v>
       </c>
+      <c r="AF122">
+        <v>1</v>
+      </c>
+      <c r="AG122">
+        <v>1</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:42">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -12148,8 +16207,41 @@
       <c r="AE123">
         <v>0</v>
       </c>
+      <c r="AF123">
+        <v>1</v>
+      </c>
+      <c r="AG123">
+        <v>1</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:42">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -12243,8 +16335,41 @@
       <c r="AE124">
         <v>0</v>
       </c>
+      <c r="AF124">
+        <v>1</v>
+      </c>
+      <c r="AG124">
+        <v>1</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AP124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:42">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -12338,8 +16463,41 @@
       <c r="AE125">
         <v>0</v>
       </c>
+      <c r="AF125">
+        <v>1</v>
+      </c>
+      <c r="AG125">
+        <v>1</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>0</v>
+      </c>
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AP125">
+        <v>1</v>
+      </c>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:42">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -12433,8 +16591,41 @@
       <c r="AE126">
         <v>0</v>
       </c>
+      <c r="AF126">
+        <v>1</v>
+      </c>
+      <c r="AG126">
+        <v>1</v>
+      </c>
+      <c r="AH126">
+        <v>1</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:42">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -12528,8 +16719,41 @@
       <c r="AE127">
         <v>0</v>
       </c>
+      <c r="AF127">
+        <v>1</v>
+      </c>
+      <c r="AG127">
+        <v>1</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>1</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AP127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" spans="1:42">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -12623,8 +16847,41 @@
       <c r="AE128">
         <v>0</v>
       </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>0</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:42">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -12718,8 +16975,41 @@
       <c r="AE129">
         <v>0</v>
       </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>0</v>
+      </c>
+      <c r="AO129">
+        <v>0</v>
+      </c>
+      <c r="AP129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:42">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -12813,8 +17103,41 @@
       <c r="AE130">
         <v>0</v>
       </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AP130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:42">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -12908,8 +17231,41 @@
       <c r="AE131">
         <v>0</v>
       </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:42">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -13003,8 +17359,41 @@
       <c r="AE132">
         <v>0</v>
       </c>
+      <c r="AF132">
+        <v>1</v>
+      </c>
+      <c r="AG132">
+        <v>1</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>1</v>
+      </c>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:42">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -13098,8 +17487,41 @@
       <c r="AE133">
         <v>0</v>
       </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:42">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -13193,8 +17615,41 @@
       <c r="AE134">
         <v>0</v>
       </c>
+      <c r="AF134">
+        <v>1</v>
+      </c>
+      <c r="AG134">
+        <v>1</v>
+      </c>
+      <c r="AH134">
+        <v>1</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>0</v>
+      </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
+      <c r="AP134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:42">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -13288,8 +17743,41 @@
       <c r="AE135">
         <v>0</v>
       </c>
+      <c r="AF135">
+        <v>1</v>
+      </c>
+      <c r="AG135">
+        <v>1</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>1</v>
+      </c>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:42">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -13383,8 +17871,41 @@
       <c r="AE136">
         <v>0</v>
       </c>
+      <c r="AF136">
+        <v>1</v>
+      </c>
+      <c r="AG136">
+        <v>1</v>
+      </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0</v>
+      </c>
+      <c r="AO136">
+        <v>0</v>
+      </c>
+      <c r="AP136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" spans="1:42">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -13478,8 +17999,41 @@
       <c r="AE137">
         <v>0</v>
       </c>
+      <c r="AF137">
+        <v>1</v>
+      </c>
+      <c r="AG137">
+        <v>1</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" spans="1:42">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -13573,8 +18127,41 @@
       <c r="AE138">
         <v>0</v>
       </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>0</v>
+      </c>
+      <c r="AO138">
+        <v>0</v>
+      </c>
+      <c r="AP138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:42">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -13668,8 +18255,41 @@
       <c r="AE139">
         <v>0</v>
       </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" spans="1:42">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -13763,8 +18383,41 @@
       <c r="AE140">
         <v>0</v>
       </c>
+      <c r="AF140">
+        <v>1</v>
+      </c>
+      <c r="AG140">
+        <v>1</v>
+      </c>
+      <c r="AH140">
+        <v>0</v>
+      </c>
+      <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>0</v>
+      </c>
+      <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>0</v>
+      </c>
+      <c r="AO140">
+        <v>0</v>
+      </c>
+      <c r="AP140">
+        <v>1</v>
+      </c>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:42">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -13858,8 +18511,41 @@
       <c r="AE141">
         <v>0</v>
       </c>
+      <c r="AF141">
+        <v>1</v>
+      </c>
+      <c r="AG141">
+        <v>1</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>0</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" spans="1:42">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -13953,8 +18639,41 @@
       <c r="AE142">
         <v>0</v>
       </c>
+      <c r="AF142">
+        <v>1</v>
+      </c>
+      <c r="AG142">
+        <v>1</v>
+      </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>0</v>
+      </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
+      <c r="AP142">
+        <v>1</v>
+      </c>
     </row>
-    <row r="143" spans="1:31">
+    <row r="143" spans="1:42">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -14048,8 +18767,41 @@
       <c r="AE143">
         <v>0</v>
       </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>1</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>0</v>
+      </c>
+      <c r="AO143">
+        <v>0</v>
+      </c>
+      <c r="AP143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:42">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -14143,8 +18895,41 @@
       <c r="AE144">
         <v>0</v>
       </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>0</v>
+      </c>
+      <c r="AO144">
+        <v>0</v>
+      </c>
+      <c r="AP144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:31">
+    <row r="145" spans="1:42">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -14238,8 +19023,41 @@
       <c r="AE145">
         <v>0</v>
       </c>
+      <c r="AF145">
+        <v>1</v>
+      </c>
+      <c r="AG145">
+        <v>1</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
+      <c r="AP145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:31">
+    <row r="146" spans="1:42">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -14333,8 +19151,41 @@
       <c r="AE146">
         <v>0</v>
       </c>
+      <c r="AF146">
+        <v>1</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>1</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>0</v>
+      </c>
+      <c r="AO146">
+        <v>0</v>
+      </c>
+      <c r="AP146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:31">
+    <row r="147" spans="1:42">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -14428,8 +19279,41 @@
       <c r="AE147">
         <v>0</v>
       </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>1</v>
+      </c>
+      <c r="AH147">
+        <v>1</v>
+      </c>
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>0</v>
+      </c>
+      <c r="AO147">
+        <v>0</v>
+      </c>
+      <c r="AP147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:31">
+    <row r="148" spans="1:42">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -14523,8 +19407,41 @@
       <c r="AE148">
         <v>0</v>
       </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>0</v>
+      </c>
+      <c r="AH148">
+        <v>1</v>
+      </c>
+      <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>0</v>
+      </c>
+      <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>0</v>
+      </c>
+      <c r="AO148">
+        <v>0</v>
+      </c>
+      <c r="AP148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:31">
+    <row r="149" spans="1:42">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -14618,8 +19535,41 @@
       <c r="AE149">
         <v>0</v>
       </c>
+      <c r="AF149">
+        <v>1</v>
+      </c>
+      <c r="AG149">
+        <v>1</v>
+      </c>
+      <c r="AH149">
+        <v>0</v>
+      </c>
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>0</v>
+      </c>
+      <c r="AO149">
+        <v>0</v>
+      </c>
+      <c r="AP149">
+        <v>1</v>
+      </c>
     </row>
-    <row r="150" spans="1:31">
+    <row r="150" spans="1:42">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -14713,8 +19663,41 @@
       <c r="AE150">
         <v>0</v>
       </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>1</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>0</v>
+      </c>
+      <c r="AO150">
+        <v>0</v>
+      </c>
+      <c r="AP150">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:31">
+    <row r="151" spans="1:42">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -14808,8 +19791,41 @@
       <c r="AE151">
         <v>0</v>
       </c>
+      <c r="AF151">
+        <v>1</v>
+      </c>
+      <c r="AG151">
+        <v>1</v>
+      </c>
+      <c r="AH151">
+        <v>0</v>
+      </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>0</v>
+      </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
+      <c r="AP151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:31">
+    <row r="152" spans="1:42">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -14903,8 +19919,41 @@
       <c r="AE152">
         <v>0</v>
       </c>
+      <c r="AF152">
+        <v>1</v>
+      </c>
+      <c r="AG152">
+        <v>0</v>
+      </c>
+      <c r="AH152">
+        <v>0</v>
+      </c>
+      <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
+        <v>0</v>
+      </c>
+      <c r="AN152">
+        <v>0</v>
+      </c>
+      <c r="AO152">
+        <v>0</v>
+      </c>
+      <c r="AP152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:31">
+    <row r="153" spans="1:42">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -14998,8 +20047,41 @@
       <c r="AE153">
         <v>0</v>
       </c>
+      <c r="AF153">
+        <v>0</v>
+      </c>
+      <c r="AG153">
+        <v>0</v>
+      </c>
+      <c r="AH153">
+        <v>0</v>
+      </c>
+      <c r="AI153">
+        <v>0</v>
+      </c>
+      <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AK153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>0</v>
+      </c>
+      <c r="AO153">
+        <v>0</v>
+      </c>
+      <c r="AP153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:31">
+    <row r="154" spans="1:42">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -15093,8 +20175,41 @@
       <c r="AE154">
         <v>0</v>
       </c>
+      <c r="AF154">
+        <v>0</v>
+      </c>
+      <c r="AG154">
+        <v>0</v>
+      </c>
+      <c r="AH154">
+        <v>1</v>
+      </c>
+      <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154">
+        <v>0</v>
+      </c>
+      <c r="AK154">
+        <v>0</v>
+      </c>
+      <c r="AL154">
+        <v>0</v>
+      </c>
+      <c r="AM154">
+        <v>0</v>
+      </c>
+      <c r="AN154">
+        <v>0</v>
+      </c>
+      <c r="AO154">
+        <v>0</v>
+      </c>
+      <c r="AP154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:31">
+    <row r="155" spans="1:42">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -15188,8 +20303,41 @@
       <c r="AE155">
         <v>0</v>
       </c>
+      <c r="AF155">
+        <v>1</v>
+      </c>
+      <c r="AG155">
+        <v>0</v>
+      </c>
+      <c r="AH155">
+        <v>0</v>
+      </c>
+      <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <v>0</v>
+      </c>
+      <c r="AM155">
+        <v>0</v>
+      </c>
+      <c r="AN155">
+        <v>0</v>
+      </c>
+      <c r="AO155">
+        <v>1</v>
+      </c>
+      <c r="AP155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:31">
+    <row r="156" spans="1:42">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -15283,8 +20431,41 @@
       <c r="AE156">
         <v>0</v>
       </c>
+      <c r="AF156">
+        <v>1</v>
+      </c>
+      <c r="AG156">
+        <v>1</v>
+      </c>
+      <c r="AH156">
+        <v>0</v>
+      </c>
+      <c r="AI156">
+        <v>0</v>
+      </c>
+      <c r="AJ156">
+        <v>0</v>
+      </c>
+      <c r="AK156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>1</v>
+      </c>
+      <c r="AM156">
+        <v>0</v>
+      </c>
+      <c r="AN156">
+        <v>0</v>
+      </c>
+      <c r="AO156">
+        <v>0</v>
+      </c>
+      <c r="AP156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:31">
+    <row r="157" spans="1:42">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -15378,8 +20559,41 @@
       <c r="AE157">
         <v>0</v>
       </c>
+      <c r="AF157">
+        <v>1</v>
+      </c>
+      <c r="AG157">
+        <v>1</v>
+      </c>
+      <c r="AH157">
+        <v>0</v>
+      </c>
+      <c r="AI157">
+        <v>0</v>
+      </c>
+      <c r="AJ157">
+        <v>0</v>
+      </c>
+      <c r="AK157">
+        <v>0</v>
+      </c>
+      <c r="AL157">
+        <v>0</v>
+      </c>
+      <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AN157">
+        <v>0</v>
+      </c>
+      <c r="AO157">
+        <v>0</v>
+      </c>
+      <c r="AP157">
+        <v>1</v>
+      </c>
     </row>
-    <row r="158" spans="1:31">
+    <row r="158" spans="1:42">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -15473,8 +20687,41 @@
       <c r="AE158">
         <v>0</v>
       </c>
+      <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
+        <v>0</v>
+      </c>
+      <c r="AH158">
+        <v>0</v>
+      </c>
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
+      <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>0</v>
+      </c>
+      <c r="AO158">
+        <v>0</v>
+      </c>
+      <c r="AP158">
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:31">
+    <row r="159" spans="1:42">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -15568,8 +20815,41 @@
       <c r="AE159">
         <v>0</v>
       </c>
+      <c r="AF159">
+        <v>0</v>
+      </c>
+      <c r="AG159">
+        <v>1</v>
+      </c>
+      <c r="AH159">
+        <v>1</v>
+      </c>
+      <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>0</v>
+      </c>
+      <c r="AO159">
+        <v>0</v>
+      </c>
+      <c r="AP159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:31">
+    <row r="160" spans="1:42">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -15663,8 +20943,41 @@
       <c r="AE160">
         <v>0</v>
       </c>
+      <c r="AF160">
+        <v>1</v>
+      </c>
+      <c r="AG160">
+        <v>1</v>
+      </c>
+      <c r="AH160">
+        <v>1</v>
+      </c>
+      <c r="AI160">
+        <v>0</v>
+      </c>
+      <c r="AJ160">
+        <v>0</v>
+      </c>
+      <c r="AK160">
+        <v>0</v>
+      </c>
+      <c r="AL160">
+        <v>0</v>
+      </c>
+      <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AN160">
+        <v>0</v>
+      </c>
+      <c r="AO160">
+        <v>0</v>
+      </c>
+      <c r="AP160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:42">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -15758,8 +21071,41 @@
       <c r="AE161">
         <v>0</v>
       </c>
+      <c r="AF161">
+        <v>0</v>
+      </c>
+      <c r="AG161">
+        <v>0</v>
+      </c>
+      <c r="AH161">
+        <v>1</v>
+      </c>
+      <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
+        <v>0</v>
+      </c>
+      <c r="AK161">
+        <v>0</v>
+      </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
+      <c r="AM161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>0</v>
+      </c>
+      <c r="AO161">
+        <v>0</v>
+      </c>
+      <c r="AP161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:42">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -15853,8 +21199,41 @@
       <c r="AE162">
         <v>0</v>
       </c>
+      <c r="AF162">
+        <v>1</v>
+      </c>
+      <c r="AG162">
+        <v>0</v>
+      </c>
+      <c r="AH162">
+        <v>0</v>
+      </c>
+      <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
+        <v>0</v>
+      </c>
+      <c r="AK162">
+        <v>0</v>
+      </c>
+      <c r="AL162">
+        <v>1</v>
+      </c>
+      <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AN162">
+        <v>0</v>
+      </c>
+      <c r="AO162">
+        <v>0</v>
+      </c>
+      <c r="AP162">
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:42">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -15948,8 +21327,41 @@
       <c r="AE163">
         <v>0</v>
       </c>
+      <c r="AF163">
+        <v>0</v>
+      </c>
+      <c r="AG163">
+        <v>0</v>
+      </c>
+      <c r="AH163">
+        <v>1</v>
+      </c>
+      <c r="AI163">
+        <v>0</v>
+      </c>
+      <c r="AJ163">
+        <v>0</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>0</v>
+      </c>
+      <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AN163">
+        <v>0</v>
+      </c>
+      <c r="AO163">
+        <v>0</v>
+      </c>
+      <c r="AP163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:42">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -16043,8 +21455,41 @@
       <c r="AE164">
         <v>0</v>
       </c>
+      <c r="AF164">
+        <v>1</v>
+      </c>
+      <c r="AG164">
+        <v>1</v>
+      </c>
+      <c r="AH164">
+        <v>0</v>
+      </c>
+      <c r="AI164">
+        <v>0</v>
+      </c>
+      <c r="AJ164">
+        <v>0</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>0</v>
+      </c>
+      <c r="AO164">
+        <v>0</v>
+      </c>
+      <c r="AP164">
+        <v>1</v>
+      </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:42">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -16138,8 +21583,41 @@
       <c r="AE165">
         <v>0</v>
       </c>
+      <c r="AF165">
+        <v>0</v>
+      </c>
+      <c r="AG165">
+        <v>0</v>
+      </c>
+      <c r="AH165">
+        <v>0</v>
+      </c>
+      <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <v>1</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>0</v>
+      </c>
+      <c r="AO165">
+        <v>0</v>
+      </c>
+      <c r="AP165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:42">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -16233,8 +21711,41 @@
       <c r="AE166">
         <v>0</v>
       </c>
+      <c r="AF166">
+        <v>1</v>
+      </c>
+      <c r="AG166">
+        <v>0</v>
+      </c>
+      <c r="AH166">
+        <v>0</v>
+      </c>
+      <c r="AI166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
+        <v>0</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>0</v>
+      </c>
+      <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>0</v>
+      </c>
+      <c r="AO166">
+        <v>1</v>
+      </c>
+      <c r="AP166">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:42">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -16328,8 +21839,41 @@
       <c r="AE167">
         <v>0</v>
       </c>
+      <c r="AF167">
+        <v>1</v>
+      </c>
+      <c r="AG167">
+        <v>1</v>
+      </c>
+      <c r="AH167">
+        <v>1</v>
+      </c>
+      <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>0</v>
+      </c>
+      <c r="AO167">
+        <v>0</v>
+      </c>
+      <c r="AP167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:42">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -16423,8 +21967,41 @@
       <c r="AE168">
         <v>0</v>
       </c>
+      <c r="AF168">
+        <v>1</v>
+      </c>
+      <c r="AG168">
+        <v>1</v>
+      </c>
+      <c r="AH168">
+        <v>0</v>
+      </c>
+      <c r="AI168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>0</v>
+      </c>
+      <c r="AO168">
+        <v>0</v>
+      </c>
+      <c r="AP168">
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:42">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -16518,8 +22095,41 @@
       <c r="AE169">
         <v>0</v>
       </c>
+      <c r="AF169">
+        <v>0</v>
+      </c>
+      <c r="AG169">
+        <v>1</v>
+      </c>
+      <c r="AH169">
+        <v>0</v>
+      </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>0</v>
+      </c>
+      <c r="AO169">
+        <v>0</v>
+      </c>
+      <c r="AP169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:42">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -16613,8 +22223,41 @@
       <c r="AE170">
         <v>0</v>
       </c>
+      <c r="AF170">
+        <v>0</v>
+      </c>
+      <c r="AG170">
+        <v>0</v>
+      </c>
+      <c r="AH170">
+        <v>0</v>
+      </c>
+      <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
+        <v>0</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>0</v>
+      </c>
+      <c r="AO170">
+        <v>0</v>
+      </c>
+      <c r="AP170">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:42">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -16708,8 +22351,41 @@
       <c r="AE171">
         <v>0</v>
       </c>
+      <c r="AF171">
+        <v>1</v>
+      </c>
+      <c r="AG171">
+        <v>1</v>
+      </c>
+      <c r="AH171">
+        <v>0</v>
+      </c>
+      <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
+        <v>0</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>0</v>
+      </c>
+      <c r="AM171">
+        <v>0</v>
+      </c>
+      <c r="AN171">
+        <v>0</v>
+      </c>
+      <c r="AO171">
+        <v>0</v>
+      </c>
+      <c r="AP171">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:42">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -16803,8 +22479,41 @@
       <c r="AE172">
         <v>0</v>
       </c>
+      <c r="AF172">
+        <v>1</v>
+      </c>
+      <c r="AG172">
+        <v>1</v>
+      </c>
+      <c r="AH172">
+        <v>1</v>
+      </c>
+      <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
+        <v>0</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>0</v>
+      </c>
+      <c r="AM172">
+        <v>0</v>
+      </c>
+      <c r="AN172">
+        <v>0</v>
+      </c>
+      <c r="AO172">
+        <v>0</v>
+      </c>
+      <c r="AP172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:42">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -16898,8 +22607,41 @@
       <c r="AE173">
         <v>0</v>
       </c>
+      <c r="AF173">
+        <v>1</v>
+      </c>
+      <c r="AG173">
+        <v>1</v>
+      </c>
+      <c r="AH173">
+        <v>0</v>
+      </c>
+      <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
+        <v>0</v>
+      </c>
+      <c r="AK173">
+        <v>0</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
+      <c r="AM173">
+        <v>0</v>
+      </c>
+      <c r="AN173">
+        <v>0</v>
+      </c>
+      <c r="AO173">
+        <v>0</v>
+      </c>
+      <c r="AP173">
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:42">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -16993,8 +22735,41 @@
       <c r="AE174">
         <v>0</v>
       </c>
+      <c r="AF174">
+        <v>1</v>
+      </c>
+      <c r="AG174">
+        <v>1</v>
+      </c>
+      <c r="AH174">
+        <v>1</v>
+      </c>
+      <c r="AI174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
+        <v>0</v>
+      </c>
+      <c r="AK174">
+        <v>0</v>
+      </c>
+      <c r="AL174">
+        <v>0</v>
+      </c>
+      <c r="AM174">
+        <v>0</v>
+      </c>
+      <c r="AN174">
+        <v>0</v>
+      </c>
+      <c r="AO174">
+        <v>0</v>
+      </c>
+      <c r="AP174">
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:42">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -17088,8 +22863,41 @@
       <c r="AE175">
         <v>0</v>
       </c>
+      <c r="AF175">
+        <v>0</v>
+      </c>
+      <c r="AG175">
+        <v>1</v>
+      </c>
+      <c r="AH175">
+        <v>1</v>
+      </c>
+      <c r="AI175">
+        <v>0</v>
+      </c>
+      <c r="AJ175">
+        <v>0</v>
+      </c>
+      <c r="AK175">
+        <v>0</v>
+      </c>
+      <c r="AL175">
+        <v>0</v>
+      </c>
+      <c r="AM175">
+        <v>0</v>
+      </c>
+      <c r="AN175">
+        <v>0</v>
+      </c>
+      <c r="AO175">
+        <v>0</v>
+      </c>
+      <c r="AP175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:42">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -17183,8 +22991,41 @@
       <c r="AE176">
         <v>0</v>
       </c>
+      <c r="AF176">
+        <v>1</v>
+      </c>
+      <c r="AG176">
+        <v>1</v>
+      </c>
+      <c r="AH176">
+        <v>0</v>
+      </c>
+      <c r="AI176">
+        <v>0</v>
+      </c>
+      <c r="AJ176">
+        <v>0</v>
+      </c>
+      <c r="AK176">
+        <v>0</v>
+      </c>
+      <c r="AL176">
+        <v>1</v>
+      </c>
+      <c r="AM176">
+        <v>0</v>
+      </c>
+      <c r="AN176">
+        <v>0</v>
+      </c>
+      <c r="AO176">
+        <v>0</v>
+      </c>
+      <c r="AP176">
+        <v>0</v>
+      </c>
     </row>
-    <row r="177" spans="1:31">
+    <row r="177" spans="1:42">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -17278,8 +23119,41 @@
       <c r="AE177">
         <v>0</v>
       </c>
+      <c r="AF177">
+        <v>1</v>
+      </c>
+      <c r="AG177">
+        <v>1</v>
+      </c>
+      <c r="AH177">
+        <v>0</v>
+      </c>
+      <c r="AI177">
+        <v>1</v>
+      </c>
+      <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
+      <c r="AL177">
+        <v>0</v>
+      </c>
+      <c r="AM177">
+        <v>0</v>
+      </c>
+      <c r="AN177">
+        <v>0</v>
+      </c>
+      <c r="AO177">
+        <v>0</v>
+      </c>
+      <c r="AP177">
+        <v>0</v>
+      </c>
     </row>
-    <row r="178" spans="1:31">
+    <row r="178" spans="1:42">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -17373,8 +23247,41 @@
       <c r="AE178">
         <v>0</v>
       </c>
+      <c r="AF178">
+        <v>1</v>
+      </c>
+      <c r="AG178">
+        <v>1</v>
+      </c>
+      <c r="AH178">
+        <v>0</v>
+      </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
+        <v>0</v>
+      </c>
+      <c r="AK178">
+        <v>0</v>
+      </c>
+      <c r="AL178">
+        <v>0</v>
+      </c>
+      <c r="AM178">
+        <v>0</v>
+      </c>
+      <c r="AN178">
+        <v>0</v>
+      </c>
+      <c r="AO178">
+        <v>0</v>
+      </c>
+      <c r="AP178">
+        <v>1</v>
+      </c>
     </row>
-    <row r="179" spans="1:31">
+    <row r="179" spans="1:42">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -17468,8 +23375,41 @@
       <c r="AE179">
         <v>0</v>
       </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>1</v>
+      </c>
+      <c r="AH179">
+        <v>0</v>
+      </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>1</v>
+      </c>
+      <c r="AK179">
+        <v>0</v>
+      </c>
+      <c r="AL179">
+        <v>0</v>
+      </c>
+      <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>0</v>
+      </c>
+      <c r="AO179">
+        <v>0</v>
+      </c>
+      <c r="AP179">
+        <v>0</v>
+      </c>
     </row>
-    <row r="180" spans="1:31">
+    <row r="180" spans="1:42">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -17563,8 +23503,41 @@
       <c r="AE180">
         <v>0</v>
       </c>
+      <c r="AF180">
+        <v>1</v>
+      </c>
+      <c r="AG180">
+        <v>1</v>
+      </c>
+      <c r="AH180">
+        <v>0</v>
+      </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
+        <v>1</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>0</v>
+      </c>
+      <c r="AM180">
+        <v>0</v>
+      </c>
+      <c r="AN180">
+        <v>0</v>
+      </c>
+      <c r="AO180">
+        <v>0</v>
+      </c>
+      <c r="AP180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:31">
+    <row r="181" spans="1:42">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -17658,8 +23631,41 @@
       <c r="AE181">
         <v>0</v>
       </c>
+      <c r="AF181">
+        <v>0</v>
+      </c>
+      <c r="AG181">
+        <v>0</v>
+      </c>
+      <c r="AH181">
+        <v>1</v>
+      </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>0</v>
+      </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>0</v>
+      </c>
+      <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AN181">
+        <v>0</v>
+      </c>
+      <c r="AO181">
+        <v>0</v>
+      </c>
+      <c r="AP181">
+        <v>0</v>
+      </c>
     </row>
-    <row r="182" spans="1:31">
+    <row r="182" spans="1:42">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -17753,8 +23759,41 @@
       <c r="AE182">
         <v>0</v>
       </c>
+      <c r="AF182">
+        <v>0</v>
+      </c>
+      <c r="AG182">
+        <v>0</v>
+      </c>
+      <c r="AH182">
+        <v>1</v>
+      </c>
+      <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
+        <v>0</v>
+      </c>
+      <c r="AK182">
+        <v>0</v>
+      </c>
+      <c r="AL182">
+        <v>0</v>
+      </c>
+      <c r="AM182">
+        <v>0</v>
+      </c>
+      <c r="AN182">
+        <v>0</v>
+      </c>
+      <c r="AO182">
+        <v>0</v>
+      </c>
+      <c r="AP182">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:31">
+    <row r="183" spans="1:42">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -17848,8 +23887,41 @@
       <c r="AE183">
         <v>0</v>
       </c>
+      <c r="AF183">
+        <v>1</v>
+      </c>
+      <c r="AG183">
+        <v>0</v>
+      </c>
+      <c r="AH183">
+        <v>0</v>
+      </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>0</v>
+      </c>
+      <c r="AK183">
+        <v>0</v>
+      </c>
+      <c r="AL183">
+        <v>0</v>
+      </c>
+      <c r="AM183">
+        <v>0</v>
+      </c>
+      <c r="AN183">
+        <v>0</v>
+      </c>
+      <c r="AO183">
+        <v>0</v>
+      </c>
+      <c r="AP183">
+        <v>1</v>
+      </c>
     </row>
-    <row r="184" spans="1:31">
+    <row r="184" spans="1:42">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -17943,8 +24015,41 @@
       <c r="AE184">
         <v>0</v>
       </c>
+      <c r="AF184">
+        <v>1</v>
+      </c>
+      <c r="AG184">
+        <v>1</v>
+      </c>
+      <c r="AH184">
+        <v>0</v>
+      </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <v>0</v>
+      </c>
+      <c r="AK184">
+        <v>0</v>
+      </c>
+      <c r="AL184">
+        <v>0</v>
+      </c>
+      <c r="AM184">
+        <v>0</v>
+      </c>
+      <c r="AN184">
+        <v>0</v>
+      </c>
+      <c r="AO184">
+        <v>0</v>
+      </c>
+      <c r="AP184">
+        <v>1</v>
+      </c>
     </row>
-    <row r="185" spans="1:31">
+    <row r="185" spans="1:42">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -18038,8 +24143,41 @@
       <c r="AE185">
         <v>0</v>
       </c>
+      <c r="AF185">
+        <v>0</v>
+      </c>
+      <c r="AG185">
+        <v>1</v>
+      </c>
+      <c r="AH185">
+        <v>1</v>
+      </c>
+      <c r="AI185">
+        <v>0</v>
+      </c>
+      <c r="AJ185">
+        <v>0</v>
+      </c>
+      <c r="AK185">
+        <v>0</v>
+      </c>
+      <c r="AL185">
+        <v>0</v>
+      </c>
+      <c r="AM185">
+        <v>0</v>
+      </c>
+      <c r="AN185">
+        <v>0</v>
+      </c>
+      <c r="AO185">
+        <v>0</v>
+      </c>
+      <c r="AP185">
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:31">
+    <row r="186" spans="1:42">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -18133,8 +24271,41 @@
       <c r="AE186">
         <v>0</v>
       </c>
+      <c r="AF186">
+        <v>1</v>
+      </c>
+      <c r="AG186">
+        <v>1</v>
+      </c>
+      <c r="AH186">
+        <v>0</v>
+      </c>
+      <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
+        <v>0</v>
+      </c>
+      <c r="AK186">
+        <v>0</v>
+      </c>
+      <c r="AL186">
+        <v>1</v>
+      </c>
+      <c r="AM186">
+        <v>0</v>
+      </c>
+      <c r="AN186">
+        <v>0</v>
+      </c>
+      <c r="AO186">
+        <v>0</v>
+      </c>
+      <c r="AP186">
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:31">
+    <row r="187" spans="1:42">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -18228,8 +24399,41 @@
       <c r="AE187">
         <v>0</v>
       </c>
+      <c r="AF187">
+        <v>1</v>
+      </c>
+      <c r="AG187">
+        <v>0</v>
+      </c>
+      <c r="AH187">
+        <v>0</v>
+      </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
+        <v>0</v>
+      </c>
+      <c r="AK187">
+        <v>0</v>
+      </c>
+      <c r="AL187">
+        <v>1</v>
+      </c>
+      <c r="AM187">
+        <v>0</v>
+      </c>
+      <c r="AN187">
+        <v>0</v>
+      </c>
+      <c r="AO187">
+        <v>0</v>
+      </c>
+      <c r="AP187">
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:31">
+    <row r="188" spans="1:42">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -18323,8 +24527,41 @@
       <c r="AE188">
         <v>0</v>
       </c>
+      <c r="AF188">
+        <v>1</v>
+      </c>
+      <c r="AG188">
+        <v>1</v>
+      </c>
+      <c r="AH188">
+        <v>0</v>
+      </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
+        <v>1</v>
+      </c>
+      <c r="AK188">
+        <v>0</v>
+      </c>
+      <c r="AL188">
+        <v>0</v>
+      </c>
+      <c r="AM188">
+        <v>0</v>
+      </c>
+      <c r="AN188">
+        <v>0</v>
+      </c>
+      <c r="AO188">
+        <v>0</v>
+      </c>
+      <c r="AP188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:31">
+    <row r="189" spans="1:42">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -18418,8 +24655,41 @@
       <c r="AE189">
         <v>0</v>
       </c>
+      <c r="AF189">
+        <v>0</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+      <c r="AH189">
+        <v>0</v>
+      </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
+        <v>0</v>
+      </c>
+      <c r="AK189">
+        <v>0</v>
+      </c>
+      <c r="AL189">
+        <v>0</v>
+      </c>
+      <c r="AM189">
+        <v>0</v>
+      </c>
+      <c r="AN189">
+        <v>0</v>
+      </c>
+      <c r="AO189">
+        <v>0</v>
+      </c>
+      <c r="AP189">
+        <v>1</v>
+      </c>
     </row>
-    <row r="190" spans="1:31">
+    <row r="190" spans="1:42">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -18513,8 +24783,41 @@
       <c r="AE190">
         <v>0</v>
       </c>
+      <c r="AF190">
+        <v>1</v>
+      </c>
+      <c r="AG190">
+        <v>1</v>
+      </c>
+      <c r="AH190">
+        <v>0</v>
+      </c>
+      <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
+        <v>0</v>
+      </c>
+      <c r="AK190">
+        <v>0</v>
+      </c>
+      <c r="AL190">
+        <v>0</v>
+      </c>
+      <c r="AM190">
+        <v>0</v>
+      </c>
+      <c r="AN190">
+        <v>0</v>
+      </c>
+      <c r="AO190">
+        <v>0</v>
+      </c>
+      <c r="AP190">
+        <v>1</v>
+      </c>
     </row>
-    <row r="191" spans="1:31">
+    <row r="191" spans="1:42">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -18608,8 +24911,41 @@
       <c r="AE191">
         <v>0</v>
       </c>
+      <c r="AF191">
+        <v>1</v>
+      </c>
+      <c r="AG191">
+        <v>0</v>
+      </c>
+      <c r="AH191">
+        <v>0</v>
+      </c>
+      <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
+        <v>0</v>
+      </c>
+      <c r="AK191">
+        <v>0</v>
+      </c>
+      <c r="AL191">
+        <v>1</v>
+      </c>
+      <c r="AM191">
+        <v>0</v>
+      </c>
+      <c r="AN191">
+        <v>0</v>
+      </c>
+      <c r="AO191">
+        <v>0</v>
+      </c>
+      <c r="AP191">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:31">
+    <row r="192" spans="1:42">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -18703,8 +25039,41 @@
       <c r="AE192">
         <v>0</v>
       </c>
+      <c r="AF192">
+        <v>0</v>
+      </c>
+      <c r="AG192">
+        <v>1</v>
+      </c>
+      <c r="AH192">
+        <v>0</v>
+      </c>
+      <c r="AI192">
+        <v>0</v>
+      </c>
+      <c r="AJ192">
+        <v>0</v>
+      </c>
+      <c r="AK192">
+        <v>0</v>
+      </c>
+      <c r="AL192">
+        <v>1</v>
+      </c>
+      <c r="AM192">
+        <v>0</v>
+      </c>
+      <c r="AN192">
+        <v>0</v>
+      </c>
+      <c r="AO192">
+        <v>0</v>
+      </c>
+      <c r="AP192">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:31">
+    <row r="193" spans="1:42">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -18798,8 +25167,41 @@
       <c r="AE193">
         <v>0</v>
       </c>
+      <c r="AF193">
+        <v>1</v>
+      </c>
+      <c r="AG193">
+        <v>0</v>
+      </c>
+      <c r="AH193">
+        <v>0</v>
+      </c>
+      <c r="AI193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
+        <v>0</v>
+      </c>
+      <c r="AK193">
+        <v>0</v>
+      </c>
+      <c r="AL193">
+        <v>0</v>
+      </c>
+      <c r="AM193">
+        <v>0</v>
+      </c>
+      <c r="AN193">
+        <v>0</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:31">
+    <row r="194" spans="1:42">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -18893,8 +25295,41 @@
       <c r="AE194">
         <v>0</v>
       </c>
+      <c r="AF194">
+        <v>1</v>
+      </c>
+      <c r="AG194">
+        <v>1</v>
+      </c>
+      <c r="AH194">
+        <v>0</v>
+      </c>
+      <c r="AI194">
+        <v>0</v>
+      </c>
+      <c r="AJ194">
+        <v>0</v>
+      </c>
+      <c r="AK194">
+        <v>0</v>
+      </c>
+      <c r="AL194">
+        <v>1</v>
+      </c>
+      <c r="AM194">
+        <v>0</v>
+      </c>
+      <c r="AN194">
+        <v>0</v>
+      </c>
+      <c r="AO194">
+        <v>0</v>
+      </c>
+      <c r="AP194">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:31">
+    <row r="195" spans="1:42">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -18988,8 +25423,41 @@
       <c r="AE195">
         <v>0</v>
       </c>
+      <c r="AF195">
+        <v>1</v>
+      </c>
+      <c r="AG195">
+        <v>1</v>
+      </c>
+      <c r="AH195">
+        <v>1</v>
+      </c>
+      <c r="AI195">
+        <v>0</v>
+      </c>
+      <c r="AJ195">
+        <v>0</v>
+      </c>
+      <c r="AK195">
+        <v>0</v>
+      </c>
+      <c r="AL195">
+        <v>0</v>
+      </c>
+      <c r="AM195">
+        <v>0</v>
+      </c>
+      <c r="AN195">
+        <v>0</v>
+      </c>
+      <c r="AO195">
+        <v>0</v>
+      </c>
+      <c r="AP195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:31">
+    <row r="196" spans="1:42">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -19083,8 +25551,41 @@
       <c r="AE196">
         <v>0</v>
       </c>
+      <c r="AF196">
+        <v>1</v>
+      </c>
+      <c r="AG196">
+        <v>1</v>
+      </c>
+      <c r="AH196">
+        <v>0</v>
+      </c>
+      <c r="AI196">
+        <v>0</v>
+      </c>
+      <c r="AJ196">
+        <v>0</v>
+      </c>
+      <c r="AK196">
+        <v>0</v>
+      </c>
+      <c r="AL196">
+        <v>1</v>
+      </c>
+      <c r="AM196">
+        <v>0</v>
+      </c>
+      <c r="AN196">
+        <v>0</v>
+      </c>
+      <c r="AO196">
+        <v>0</v>
+      </c>
+      <c r="AP196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:31">
+    <row r="197" spans="1:42">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -19176,6 +25677,39 @@
         <v>0</v>
       </c>
       <c r="AE197">
+        <v>0</v>
+      </c>
+      <c r="AF197">
+        <v>0</v>
+      </c>
+      <c r="AG197">
+        <v>1</v>
+      </c>
+      <c r="AH197">
+        <v>0</v>
+      </c>
+      <c r="AI197">
+        <v>0</v>
+      </c>
+      <c r="AJ197">
+        <v>1</v>
+      </c>
+      <c r="AK197">
+        <v>0</v>
+      </c>
+      <c r="AL197">
+        <v>0</v>
+      </c>
+      <c r="AM197">
+        <v>0</v>
+      </c>
+      <c r="AN197">
+        <v>0</v>
+      </c>
+      <c r="AO197">
+        <v>0</v>
+      </c>
+      <c r="AP197">
         <v>0</v>
       </c>
     </row>

--- a/data/clean data.xlsx
+++ b/data/clean data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>mage</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>fomo</t>
-  </si>
-  <si>
-    <t>checking</t>
   </si>
 </sst>
 </file>
@@ -482,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL197"/>
+  <dimension ref="A1:AK197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,11 +594,8 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -713,11 +707,8 @@
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -829,11 +820,8 @@
       <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -945,11 +933,8 @@
       <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1061,11 +1046,8 @@
       <c r="AK5">
         <v>1</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1177,11 +1159,8 @@
       <c r="AK6">
         <v>0</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1293,11 +1272,8 @@
       <c r="AK7">
         <v>0</v>
       </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1409,11 +1385,8 @@
       <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1525,11 +1498,8 @@
       <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1641,11 +1611,8 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1757,11 +1724,8 @@
       <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1873,11 +1837,8 @@
       <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1989,11 +1950,8 @@
       <c r="AK13">
         <v>1</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2105,11 +2063,8 @@
       <c r="AK14">
         <v>0</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2221,11 +2176,8 @@
       <c r="AK15">
         <v>0</v>
       </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2337,11 +2289,8 @@
       <c r="AK16">
         <v>1</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:37">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2453,11 +2402,8 @@
       <c r="AK17">
         <v>1</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:37">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2569,11 +2515,8 @@
       <c r="AK18">
         <v>1</v>
       </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:37">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2685,11 +2628,8 @@
       <c r="AK19">
         <v>1</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:37">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2801,11 +2741,8 @@
       <c r="AK20">
         <v>1</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:37">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2917,11 +2854,8 @@
       <c r="AK21">
         <v>0</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:37">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3033,11 +2967,8 @@
       <c r="AK22">
         <v>1</v>
       </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:37">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3149,11 +3080,8 @@
       <c r="AK23">
         <v>0</v>
       </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:37">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3265,11 +3193,8 @@
       <c r="AK24">
         <v>1</v>
       </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:37">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3381,11 +3306,8 @@
       <c r="AK25">
         <v>0</v>
       </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:37">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3497,11 +3419,8 @@
       <c r="AK26">
         <v>1</v>
       </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:37">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3613,11 +3532,8 @@
       <c r="AK27">
         <v>0</v>
       </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:37">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3729,11 +3645,8 @@
       <c r="AK28">
         <v>0</v>
       </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:37">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3845,11 +3758,8 @@
       <c r="AK29">
         <v>0</v>
       </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:37">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3961,11 +3871,8 @@
       <c r="AK30">
         <v>0</v>
       </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:37">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4077,11 +3984,8 @@
       <c r="AK31">
         <v>0</v>
       </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:37">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4193,11 +4097,8 @@
       <c r="AK32">
         <v>1</v>
       </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:37">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4309,11 +4210,8 @@
       <c r="AK33">
         <v>0</v>
       </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:37">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4425,11 +4323,8 @@
       <c r="AK34">
         <v>0</v>
       </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:37">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4541,11 +4436,8 @@
       <c r="AK35">
         <v>0</v>
       </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:37">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4657,11 +4549,8 @@
       <c r="AK36">
         <v>0</v>
       </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:37">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4773,11 +4662,8 @@
       <c r="AK37">
         <v>1</v>
       </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:37">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4889,11 +4775,8 @@
       <c r="AK38">
         <v>1</v>
       </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:37">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5005,11 +4888,8 @@
       <c r="AK39">
         <v>0</v>
       </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:37">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5121,11 +5001,8 @@
       <c r="AK40">
         <v>0</v>
       </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:37">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5237,11 +5114,8 @@
       <c r="AK41">
         <v>0</v>
       </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:37">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5353,11 +5227,8 @@
       <c r="AK42">
         <v>1</v>
       </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:37">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5469,11 +5340,8 @@
       <c r="AK43">
         <v>1</v>
       </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:37">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5585,11 +5453,8 @@
       <c r="AK44">
         <v>1</v>
       </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:37">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5701,11 +5566,8 @@
       <c r="AK45">
         <v>0</v>
       </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:37">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5817,11 +5679,8 @@
       <c r="AK46">
         <v>0</v>
       </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:37">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5933,11 +5792,8 @@
       <c r="AK47">
         <v>0</v>
       </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:37">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6049,11 +5905,8 @@
       <c r="AK48">
         <v>0</v>
       </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:37">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6165,11 +6018,8 @@
       <c r="AK49">
         <v>0</v>
       </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:37">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6281,11 +6131,8 @@
       <c r="AK50">
         <v>1</v>
       </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:37">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6397,11 +6244,8 @@
       <c r="AK51">
         <v>1</v>
       </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:37">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6513,11 +6357,8 @@
       <c r="AK52">
         <v>1</v>
       </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:37">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6629,11 +6470,8 @@
       <c r="AK53">
         <v>0</v>
       </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:37">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6745,11 +6583,8 @@
       <c r="AK54">
         <v>1</v>
       </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:37">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6861,11 +6696,8 @@
       <c r="AK55">
         <v>0</v>
       </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:37">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6977,11 +6809,8 @@
       <c r="AK56">
         <v>1</v>
       </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:37">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7093,11 +6922,8 @@
       <c r="AK57">
         <v>1</v>
       </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:37">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7209,11 +7035,8 @@
       <c r="AK58">
         <v>0</v>
       </c>
-      <c r="AL58">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:37">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7325,11 +7148,8 @@
       <c r="AK59">
         <v>0</v>
       </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:37">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7441,11 +7261,8 @@
       <c r="AK60">
         <v>1</v>
       </c>
-      <c r="AL60">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:37">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7557,11 +7374,8 @@
       <c r="AK61">
         <v>1</v>
       </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:37">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7673,11 +7487,8 @@
       <c r="AK62">
         <v>0</v>
       </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:37">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7789,11 +7600,8 @@
       <c r="AK63">
         <v>0</v>
       </c>
-      <c r="AL63">
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:37">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7905,11 +7713,8 @@
       <c r="AK64">
         <v>1</v>
       </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:37">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8021,11 +7826,8 @@
       <c r="AK65">
         <v>0</v>
       </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:37">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8137,11 +7939,8 @@
       <c r="AK66">
         <v>1</v>
       </c>
-      <c r="AL66">
-        <v>0</v>
-      </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:37">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8253,11 +8052,8 @@
       <c r="AK67">
         <v>0</v>
       </c>
-      <c r="AL67">
-        <v>0</v>
-      </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:37">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8369,11 +8165,8 @@
       <c r="AK68">
         <v>1</v>
       </c>
-      <c r="AL68">
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:37">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8485,11 +8278,8 @@
       <c r="AK69">
         <v>0</v>
       </c>
-      <c r="AL69">
-        <v>0</v>
-      </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:37">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8601,11 +8391,8 @@
       <c r="AK70">
         <v>0</v>
       </c>
-      <c r="AL70">
-        <v>0</v>
-      </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:37">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8717,11 +8504,8 @@
       <c r="AK71">
         <v>0</v>
       </c>
-      <c r="AL71">
-        <v>0</v>
-      </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:37">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8833,11 +8617,8 @@
       <c r="AK72">
         <v>0</v>
       </c>
-      <c r="AL72">
-        <v>0</v>
-      </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:37">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8949,11 +8730,8 @@
       <c r="AK73">
         <v>1</v>
       </c>
-      <c r="AL73">
-        <v>0</v>
-      </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:37">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -9065,11 +8843,8 @@
       <c r="AK74">
         <v>0</v>
       </c>
-      <c r="AL74">
-        <v>0</v>
-      </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:37">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -9181,11 +8956,8 @@
       <c r="AK75">
         <v>1</v>
       </c>
-      <c r="AL75">
-        <v>0</v>
-      </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:37">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -9297,11 +9069,8 @@
       <c r="AK76">
         <v>0</v>
       </c>
-      <c r="AL76">
-        <v>0</v>
-      </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:37">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9413,11 +9182,8 @@
       <c r="AK77">
         <v>1</v>
       </c>
-      <c r="AL77">
-        <v>0</v>
-      </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:37">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9529,11 +9295,8 @@
       <c r="AK78">
         <v>1</v>
       </c>
-      <c r="AL78">
-        <v>0</v>
-      </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:37">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9645,11 +9408,8 @@
       <c r="AK79">
         <v>0</v>
       </c>
-      <c r="AL79">
-        <v>0</v>
-      </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:37">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9761,11 +9521,8 @@
       <c r="AK80">
         <v>0</v>
       </c>
-      <c r="AL80">
-        <v>0</v>
-      </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:37">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9877,11 +9634,8 @@
       <c r="AK81">
         <v>1</v>
       </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:37">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9993,11 +9747,8 @@
       <c r="AK82">
         <v>1</v>
       </c>
-      <c r="AL82">
-        <v>0</v>
-      </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:37">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10109,11 +9860,8 @@
       <c r="AK83">
         <v>0</v>
       </c>
-      <c r="AL83">
-        <v>0</v>
-      </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:37">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10225,11 +9973,8 @@
       <c r="AK84">
         <v>0</v>
       </c>
-      <c r="AL84">
-        <v>0</v>
-      </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:37">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10341,11 +10086,8 @@
       <c r="AK85">
         <v>1</v>
       </c>
-      <c r="AL85">
-        <v>0</v>
-      </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:37">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10457,11 +10199,8 @@
       <c r="AK86">
         <v>0</v>
       </c>
-      <c r="AL86">
-        <v>0</v>
-      </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:37">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10573,11 +10312,8 @@
       <c r="AK87">
         <v>0</v>
       </c>
-      <c r="AL87">
-        <v>0</v>
-      </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:37">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10689,11 +10425,8 @@
       <c r="AK88">
         <v>0</v>
       </c>
-      <c r="AL88">
-        <v>0</v>
-      </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:37">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10805,11 +10538,8 @@
       <c r="AK89">
         <v>1</v>
       </c>
-      <c r="AL89">
-        <v>0</v>
-      </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:37">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10921,11 +10651,8 @@
       <c r="AK90">
         <v>0</v>
       </c>
-      <c r="AL90">
-        <v>0</v>
-      </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:37">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -11037,11 +10764,8 @@
       <c r="AK91">
         <v>0</v>
       </c>
-      <c r="AL91">
-        <v>0</v>
-      </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:37">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -11153,11 +10877,8 @@
       <c r="AK92">
         <v>0</v>
       </c>
-      <c r="AL92">
-        <v>0</v>
-      </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:37">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -11269,11 +10990,8 @@
       <c r="AK93">
         <v>0</v>
       </c>
-      <c r="AL93">
-        <v>0</v>
-      </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:37">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -11385,11 +11103,8 @@
       <c r="AK94">
         <v>0</v>
       </c>
-      <c r="AL94">
-        <v>0</v>
-      </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:37">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -11501,11 +11216,8 @@
       <c r="AK95">
         <v>0</v>
       </c>
-      <c r="AL95">
-        <v>0</v>
-      </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:37">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -11617,11 +11329,8 @@
       <c r="AK96">
         <v>0</v>
       </c>
-      <c r="AL96">
-        <v>0</v>
-      </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:37">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -11733,11 +11442,8 @@
       <c r="AK97">
         <v>0</v>
       </c>
-      <c r="AL97">
-        <v>0</v>
-      </c>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:37">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -11849,11 +11555,8 @@
       <c r="AK98">
         <v>0</v>
       </c>
-      <c r="AL98">
-        <v>0</v>
-      </c>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:37">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -11965,11 +11668,8 @@
       <c r="AK99">
         <v>0</v>
       </c>
-      <c r="AL99">
-        <v>0</v>
-      </c>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:37">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12081,11 +11781,8 @@
       <c r="AK100">
         <v>0</v>
       </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
     </row>
-    <row r="101" spans="1:38">
+    <row r="101" spans="1:37">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12197,11 +11894,8 @@
       <c r="AK101">
         <v>0</v>
       </c>
-      <c r="AL101">
-        <v>0</v>
-      </c>
     </row>
-    <row r="102" spans="1:38">
+    <row r="102" spans="1:37">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12313,11 +12007,8 @@
       <c r="AK102">
         <v>1</v>
       </c>
-      <c r="AL102">
-        <v>0</v>
-      </c>
     </row>
-    <row r="103" spans="1:38">
+    <row r="103" spans="1:37">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12429,11 +12120,8 @@
       <c r="AK103">
         <v>0</v>
       </c>
-      <c r="AL103">
-        <v>0</v>
-      </c>
     </row>
-    <row r="104" spans="1:38">
+    <row r="104" spans="1:37">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -12545,11 +12233,8 @@
       <c r="AK104">
         <v>1</v>
       </c>
-      <c r="AL104">
-        <v>0</v>
-      </c>
     </row>
-    <row r="105" spans="1:38">
+    <row r="105" spans="1:37">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -12661,11 +12346,8 @@
       <c r="AK105">
         <v>0</v>
       </c>
-      <c r="AL105">
-        <v>0</v>
-      </c>
     </row>
-    <row r="106" spans="1:38">
+    <row r="106" spans="1:37">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -12777,11 +12459,8 @@
       <c r="AK106">
         <v>0</v>
       </c>
-      <c r="AL106">
-        <v>0</v>
-      </c>
     </row>
-    <row r="107" spans="1:38">
+    <row r="107" spans="1:37">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -12893,11 +12572,8 @@
       <c r="AK107">
         <v>1</v>
       </c>
-      <c r="AL107">
-        <v>0</v>
-      </c>
     </row>
-    <row r="108" spans="1:38">
+    <row r="108" spans="1:37">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -13009,11 +12685,8 @@
       <c r="AK108">
         <v>0</v>
       </c>
-      <c r="AL108">
-        <v>0</v>
-      </c>
     </row>
-    <row r="109" spans="1:38">
+    <row r="109" spans="1:37">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -13125,11 +12798,8 @@
       <c r="AK109">
         <v>1</v>
       </c>
-      <c r="AL109">
-        <v>0</v>
-      </c>
     </row>
-    <row r="110" spans="1:38">
+    <row r="110" spans="1:37">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -13241,11 +12911,8 @@
       <c r="AK110">
         <v>0</v>
       </c>
-      <c r="AL110">
-        <v>0</v>
-      </c>
     </row>
-    <row r="111" spans="1:38">
+    <row r="111" spans="1:37">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -13357,11 +13024,8 @@
       <c r="AK111">
         <v>0</v>
       </c>
-      <c r="AL111">
-        <v>0</v>
-      </c>
     </row>
-    <row r="112" spans="1:38">
+    <row r="112" spans="1:37">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -13473,11 +13137,8 @@
       <c r="AK112">
         <v>0</v>
       </c>
-      <c r="AL112">
-        <v>0</v>
-      </c>
     </row>
-    <row r="113" spans="1:38">
+    <row r="113" spans="1:37">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -13589,11 +13250,8 @@
       <c r="AK113">
         <v>1</v>
       </c>
-      <c r="AL113">
-        <v>0</v>
-      </c>
     </row>
-    <row r="114" spans="1:38">
+    <row r="114" spans="1:37">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -13705,11 +13363,8 @@
       <c r="AK114">
         <v>0</v>
       </c>
-      <c r="AL114">
-        <v>0</v>
-      </c>
     </row>
-    <row r="115" spans="1:38">
+    <row r="115" spans="1:37">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -13821,11 +13476,8 @@
       <c r="AK115">
         <v>0</v>
       </c>
-      <c r="AL115">
-        <v>0</v>
-      </c>
     </row>
-    <row r="116" spans="1:38">
+    <row r="116" spans="1:37">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -13937,11 +13589,8 @@
       <c r="AK116">
         <v>1</v>
       </c>
-      <c r="AL116">
-        <v>0</v>
-      </c>
     </row>
-    <row r="117" spans="1:38">
+    <row r="117" spans="1:37">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -14053,11 +13702,8 @@
       <c r="AK117">
         <v>0</v>
       </c>
-      <c r="AL117">
-        <v>0</v>
-      </c>
     </row>
-    <row r="118" spans="1:38">
+    <row r="118" spans="1:37">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -14169,11 +13815,8 @@
       <c r="AK118">
         <v>0</v>
       </c>
-      <c r="AL118">
-        <v>0</v>
-      </c>
     </row>
-    <row r="119" spans="1:38">
+    <row r="119" spans="1:37">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -14285,11 +13928,8 @@
       <c r="AK119">
         <v>0</v>
       </c>
-      <c r="AL119">
-        <v>0</v>
-      </c>
     </row>
-    <row r="120" spans="1:38">
+    <row r="120" spans="1:37">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -14401,11 +14041,8 @@
       <c r="AK120">
         <v>1</v>
       </c>
-      <c r="AL120">
-        <v>0</v>
-      </c>
     </row>
-    <row r="121" spans="1:38">
+    <row r="121" spans="1:37">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -14517,11 +14154,8 @@
       <c r="AK121">
         <v>0</v>
       </c>
-      <c r="AL121">
-        <v>0</v>
-      </c>
     </row>
-    <row r="122" spans="1:38">
+    <row r="122" spans="1:37">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -14633,11 +14267,8 @@
       <c r="AK122">
         <v>0</v>
       </c>
-      <c r="AL122">
-        <v>0</v>
-      </c>
     </row>
-    <row r="123" spans="1:38">
+    <row r="123" spans="1:37">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -14749,11 +14380,8 @@
       <c r="AK123">
         <v>0</v>
       </c>
-      <c r="AL123">
-        <v>0</v>
-      </c>
     </row>
-    <row r="124" spans="1:38">
+    <row r="124" spans="1:37">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -14865,11 +14493,8 @@
       <c r="AK124">
         <v>0</v>
       </c>
-      <c r="AL124">
-        <v>0</v>
-      </c>
     </row>
-    <row r="125" spans="1:38">
+    <row r="125" spans="1:37">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -14981,11 +14606,8 @@
       <c r="AK125">
         <v>1</v>
       </c>
-      <c r="AL125">
-        <v>0</v>
-      </c>
     </row>
-    <row r="126" spans="1:38">
+    <row r="126" spans="1:37">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -15097,11 +14719,8 @@
       <c r="AK126">
         <v>0</v>
       </c>
-      <c r="AL126">
-        <v>0</v>
-      </c>
     </row>
-    <row r="127" spans="1:38">
+    <row r="127" spans="1:37">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -15213,11 +14832,8 @@
       <c r="AK127">
         <v>0</v>
       </c>
-      <c r="AL127">
-        <v>0</v>
-      </c>
     </row>
-    <row r="128" spans="1:38">
+    <row r="128" spans="1:37">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -15329,11 +14945,8 @@
       <c r="AK128">
         <v>0</v>
       </c>
-      <c r="AL128">
-        <v>0</v>
-      </c>
     </row>
-    <row r="129" spans="1:38">
+    <row r="129" spans="1:37">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -15445,11 +15058,8 @@
       <c r="AK129">
         <v>0</v>
       </c>
-      <c r="AL129">
-        <v>0</v>
-      </c>
     </row>
-    <row r="130" spans="1:38">
+    <row r="130" spans="1:37">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -15561,11 +15171,8 @@
       <c r="AK130">
         <v>0</v>
       </c>
-      <c r="AL130">
-        <v>0</v>
-      </c>
     </row>
-    <row r="131" spans="1:38">
+    <row r="131" spans="1:37">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -15677,11 +15284,8 @@
       <c r="AK131">
         <v>0</v>
       </c>
-      <c r="AL131">
-        <v>0</v>
-      </c>
     </row>
-    <row r="132" spans="1:38">
+    <row r="132" spans="1:37">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -15793,11 +15397,8 @@
       <c r="AK132">
         <v>1</v>
       </c>
-      <c r="AL132">
-        <v>0</v>
-      </c>
     </row>
-    <row r="133" spans="1:38">
+    <row r="133" spans="1:37">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -15909,11 +15510,8 @@
       <c r="AK133">
         <v>0</v>
       </c>
-      <c r="AL133">
-        <v>0</v>
-      </c>
     </row>
-    <row r="134" spans="1:38">
+    <row r="134" spans="1:37">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -16025,11 +15623,8 @@
       <c r="AK134">
         <v>0</v>
       </c>
-      <c r="AL134">
-        <v>0</v>
-      </c>
     </row>
-    <row r="135" spans="1:38">
+    <row r="135" spans="1:37">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -16141,11 +15736,8 @@
       <c r="AK135">
         <v>1</v>
       </c>
-      <c r="AL135">
-        <v>0</v>
-      </c>
     </row>
-    <row r="136" spans="1:38">
+    <row r="136" spans="1:37">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -16257,11 +15849,8 @@
       <c r="AK136">
         <v>0</v>
       </c>
-      <c r="AL136">
-        <v>0</v>
-      </c>
     </row>
-    <row r="137" spans="1:38">
+    <row r="137" spans="1:37">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -16373,11 +15962,8 @@
       <c r="AK137">
         <v>0</v>
       </c>
-      <c r="AL137">
-        <v>0</v>
-      </c>
     </row>
-    <row r="138" spans="1:38">
+    <row r="138" spans="1:37">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -16489,11 +16075,8 @@
       <c r="AK138">
         <v>0</v>
       </c>
-      <c r="AL138">
-        <v>0</v>
-      </c>
     </row>
-    <row r="139" spans="1:38">
+    <row r="139" spans="1:37">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -16605,11 +16188,8 @@
       <c r="AK139">
         <v>0</v>
       </c>
-      <c r="AL139">
-        <v>0</v>
-      </c>
     </row>
-    <row r="140" spans="1:38">
+    <row r="140" spans="1:37">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -16721,11 +16301,8 @@
       <c r="AK140">
         <v>1</v>
       </c>
-      <c r="AL140">
-        <v>0</v>
-      </c>
     </row>
-    <row r="141" spans="1:38">
+    <row r="141" spans="1:37">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -16837,11 +16414,8 @@
       <c r="AK141">
         <v>0</v>
       </c>
-      <c r="AL141">
-        <v>0</v>
-      </c>
     </row>
-    <row r="142" spans="1:38">
+    <row r="142" spans="1:37">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -16953,11 +16527,8 @@
       <c r="AK142">
         <v>1</v>
       </c>
-      <c r="AL142">
-        <v>0</v>
-      </c>
     </row>
-    <row r="143" spans="1:38">
+    <row r="143" spans="1:37">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -17069,11 +16640,8 @@
       <c r="AK143">
         <v>0</v>
       </c>
-      <c r="AL143">
-        <v>0</v>
-      </c>
     </row>
-    <row r="144" spans="1:38">
+    <row r="144" spans="1:37">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -17185,11 +16753,8 @@
       <c r="AK144">
         <v>0</v>
       </c>
-      <c r="AL144">
-        <v>0</v>
-      </c>
     </row>
-    <row r="145" spans="1:38">
+    <row r="145" spans="1:37">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -17301,11 +16866,8 @@
       <c r="AK145">
         <v>0</v>
       </c>
-      <c r="AL145">
-        <v>0</v>
-      </c>
     </row>
-    <row r="146" spans="1:38">
+    <row r="146" spans="1:37">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -17417,11 +16979,8 @@
       <c r="AK146">
         <v>0</v>
       </c>
-      <c r="AL146">
-        <v>0</v>
-      </c>
     </row>
-    <row r="147" spans="1:38">
+    <row r="147" spans="1:37">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -17533,11 +17092,8 @@
       <c r="AK147">
         <v>0</v>
       </c>
-      <c r="AL147">
-        <v>0</v>
-      </c>
     </row>
-    <row r="148" spans="1:38">
+    <row r="148" spans="1:37">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -17649,11 +17205,8 @@
       <c r="AK148">
         <v>0</v>
       </c>
-      <c r="AL148">
-        <v>0</v>
-      </c>
     </row>
-    <row r="149" spans="1:38">
+    <row r="149" spans="1:37">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -17765,11 +17318,8 @@
       <c r="AK149">
         <v>1</v>
       </c>
-      <c r="AL149">
-        <v>0</v>
-      </c>
     </row>
-    <row r="150" spans="1:38">
+    <row r="150" spans="1:37">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -17881,11 +17431,8 @@
       <c r="AK150">
         <v>1</v>
       </c>
-      <c r="AL150">
-        <v>0</v>
-      </c>
     </row>
-    <row r="151" spans="1:38">
+    <row r="151" spans="1:37">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -17997,11 +17544,8 @@
       <c r="AK151">
         <v>0</v>
       </c>
-      <c r="AL151">
-        <v>0</v>
-      </c>
     </row>
-    <row r="152" spans="1:38">
+    <row r="152" spans="1:37">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -18113,11 +17657,8 @@
       <c r="AK152">
         <v>0</v>
       </c>
-      <c r="AL152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="153" spans="1:38">
+    <row r="153" spans="1:37">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -18229,11 +17770,8 @@
       <c r="AK153">
         <v>0</v>
       </c>
-      <c r="AL153">
-        <v>0</v>
-      </c>
     </row>
-    <row r="154" spans="1:38">
+    <row r="154" spans="1:37">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -18345,11 +17883,8 @@
       <c r="AK154">
         <v>0</v>
       </c>
-      <c r="AL154">
-        <v>0</v>
-      </c>
     </row>
-    <row r="155" spans="1:38">
+    <row r="155" spans="1:37">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -18461,11 +17996,8 @@
       <c r="AK155">
         <v>0</v>
       </c>
-      <c r="AL155">
-        <v>0</v>
-      </c>
     </row>
-    <row r="156" spans="1:38">
+    <row r="156" spans="1:37">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -18577,11 +18109,8 @@
       <c r="AK156">
         <v>0</v>
       </c>
-      <c r="AL156">
-        <v>0</v>
-      </c>
     </row>
-    <row r="157" spans="1:38">
+    <row r="157" spans="1:37">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -18693,11 +18222,8 @@
       <c r="AK157">
         <v>1</v>
       </c>
-      <c r="AL157">
-        <v>0</v>
-      </c>
     </row>
-    <row r="158" spans="1:38">
+    <row r="158" spans="1:37">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -18809,11 +18335,8 @@
       <c r="AK158">
         <v>0</v>
       </c>
-      <c r="AL158">
-        <v>0</v>
-      </c>
     </row>
-    <row r="159" spans="1:38">
+    <row r="159" spans="1:37">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -18925,11 +18448,8 @@
       <c r="AK159">
         <v>0</v>
       </c>
-      <c r="AL159">
-        <v>0</v>
-      </c>
     </row>
-    <row r="160" spans="1:38">
+    <row r="160" spans="1:37">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -19041,11 +18561,8 @@
       <c r="AK160">
         <v>0</v>
       </c>
-      <c r="AL160">
-        <v>0</v>
-      </c>
     </row>
-    <row r="161" spans="1:38">
+    <row r="161" spans="1:37">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -19157,11 +18674,8 @@
       <c r="AK161">
         <v>0</v>
       </c>
-      <c r="AL161">
-        <v>0</v>
-      </c>
     </row>
-    <row r="162" spans="1:38">
+    <row r="162" spans="1:37">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -19273,11 +18787,8 @@
       <c r="AK162">
         <v>0</v>
       </c>
-      <c r="AL162">
-        <v>0</v>
-      </c>
     </row>
-    <row r="163" spans="1:38">
+    <row r="163" spans="1:37">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -19389,11 +18900,8 @@
       <c r="AK163">
         <v>0</v>
       </c>
-      <c r="AL163">
-        <v>0</v>
-      </c>
     </row>
-    <row r="164" spans="1:38">
+    <row r="164" spans="1:37">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -19505,11 +19013,8 @@
       <c r="AK164">
         <v>1</v>
       </c>
-      <c r="AL164">
-        <v>0</v>
-      </c>
     </row>
-    <row r="165" spans="1:38">
+    <row r="165" spans="1:37">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -19621,11 +19126,8 @@
       <c r="AK165">
         <v>0</v>
       </c>
-      <c r="AL165">
-        <v>0</v>
-      </c>
     </row>
-    <row r="166" spans="1:38">
+    <row r="166" spans="1:37">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -19737,11 +19239,8 @@
       <c r="AK166">
         <v>0</v>
       </c>
-      <c r="AL166">
-        <v>0</v>
-      </c>
     </row>
-    <row r="167" spans="1:38">
+    <row r="167" spans="1:37">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -19853,11 +19352,8 @@
       <c r="AK167">
         <v>0</v>
       </c>
-      <c r="AL167">
-        <v>0</v>
-      </c>
     </row>
-    <row r="168" spans="1:38">
+    <row r="168" spans="1:37">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -19969,11 +19465,8 @@
       <c r="AK168">
         <v>0</v>
       </c>
-      <c r="AL168">
-        <v>0</v>
-      </c>
     </row>
-    <row r="169" spans="1:38">
+    <row r="169" spans="1:37">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -20085,11 +19578,8 @@
       <c r="AK169">
         <v>0</v>
       </c>
-      <c r="AL169">
-        <v>0</v>
-      </c>
     </row>
-    <row r="170" spans="1:38">
+    <row r="170" spans="1:37">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -20201,11 +19691,8 @@
       <c r="AK170">
         <v>0</v>
       </c>
-      <c r="AL170">
-        <v>0</v>
-      </c>
     </row>
-    <row r="171" spans="1:38">
+    <row r="171" spans="1:37">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -20317,11 +19804,8 @@
       <c r="AK171">
         <v>1</v>
       </c>
-      <c r="AL171">
-        <v>0</v>
-      </c>
     </row>
-    <row r="172" spans="1:38">
+    <row r="172" spans="1:37">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -20433,11 +19917,8 @@
       <c r="AK172">
         <v>0</v>
       </c>
-      <c r="AL172">
-        <v>0</v>
-      </c>
     </row>
-    <row r="173" spans="1:38">
+    <row r="173" spans="1:37">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -20549,11 +20030,8 @@
       <c r="AK173">
         <v>0</v>
       </c>
-      <c r="AL173">
-        <v>0</v>
-      </c>
     </row>
-    <row r="174" spans="1:38">
+    <row r="174" spans="1:37">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -20665,11 +20143,8 @@
       <c r="AK174">
         <v>0</v>
       </c>
-      <c r="AL174">
-        <v>0</v>
-      </c>
     </row>
-    <row r="175" spans="1:38">
+    <row r="175" spans="1:37">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -20781,11 +20256,8 @@
       <c r="AK175">
         <v>0</v>
       </c>
-      <c r="AL175">
-        <v>0</v>
-      </c>
     </row>
-    <row r="176" spans="1:38">
+    <row r="176" spans="1:37">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -20897,11 +20369,8 @@
       <c r="AK176">
         <v>0</v>
       </c>
-      <c r="AL176">
-        <v>0</v>
-      </c>
     </row>
-    <row r="177" spans="1:38">
+    <row r="177" spans="1:37">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -21013,11 +20482,8 @@
       <c r="AK177">
         <v>0</v>
       </c>
-      <c r="AL177">
-        <v>0</v>
-      </c>
     </row>
-    <row r="178" spans="1:38">
+    <row r="178" spans="1:37">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -21129,11 +20595,8 @@
       <c r="AK178">
         <v>1</v>
       </c>
-      <c r="AL178">
-        <v>0</v>
-      </c>
     </row>
-    <row r="179" spans="1:38">
+    <row r="179" spans="1:37">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -21245,11 +20708,8 @@
       <c r="AK179">
         <v>0</v>
       </c>
-      <c r="AL179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="180" spans="1:38">
+    <row r="180" spans="1:37">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -21361,11 +20821,8 @@
       <c r="AK180">
         <v>0</v>
       </c>
-      <c r="AL180">
-        <v>0</v>
-      </c>
     </row>
-    <row r="181" spans="1:38">
+    <row r="181" spans="1:37">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -21477,11 +20934,8 @@
       <c r="AK181">
         <v>0</v>
       </c>
-      <c r="AL181">
-        <v>0</v>
-      </c>
     </row>
-    <row r="182" spans="1:38">
+    <row r="182" spans="1:37">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -21593,11 +21047,8 @@
       <c r="AK182">
         <v>0</v>
       </c>
-      <c r="AL182">
-        <v>0</v>
-      </c>
     </row>
-    <row r="183" spans="1:38">
+    <row r="183" spans="1:37">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -21709,11 +21160,8 @@
       <c r="AK183">
         <v>1</v>
       </c>
-      <c r="AL183">
-        <v>0</v>
-      </c>
     </row>
-    <row r="184" spans="1:38">
+    <row r="184" spans="1:37">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -21825,11 +21273,8 @@
       <c r="AK184">
         <v>1</v>
       </c>
-      <c r="AL184">
-        <v>0</v>
-      </c>
     </row>
-    <row r="185" spans="1:38">
+    <row r="185" spans="1:37">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -21941,11 +21386,8 @@
       <c r="AK185">
         <v>0</v>
       </c>
-      <c r="AL185">
-        <v>0</v>
-      </c>
     </row>
-    <row r="186" spans="1:38">
+    <row r="186" spans="1:37">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -22057,11 +21499,8 @@
       <c r="AK186">
         <v>0</v>
       </c>
-      <c r="AL186">
-        <v>0</v>
-      </c>
     </row>
-    <row r="187" spans="1:38">
+    <row r="187" spans="1:37">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -22173,11 +21612,8 @@
       <c r="AK187">
         <v>0</v>
       </c>
-      <c r="AL187">
-        <v>0</v>
-      </c>
     </row>
-    <row r="188" spans="1:38">
+    <row r="188" spans="1:37">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -22289,11 +21725,8 @@
       <c r="AK188">
         <v>0</v>
       </c>
-      <c r="AL188">
-        <v>0</v>
-      </c>
     </row>
-    <row r="189" spans="1:38">
+    <row r="189" spans="1:37">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -22405,11 +21838,8 @@
       <c r="AK189">
         <v>1</v>
       </c>
-      <c r="AL189">
-        <v>0</v>
-      </c>
     </row>
-    <row r="190" spans="1:38">
+    <row r="190" spans="1:37">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -22521,11 +21951,8 @@
       <c r="AK190">
         <v>1</v>
       </c>
-      <c r="AL190">
-        <v>0</v>
-      </c>
     </row>
-    <row r="191" spans="1:38">
+    <row r="191" spans="1:37">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -22637,11 +22064,8 @@
       <c r="AK191">
         <v>0</v>
       </c>
-      <c r="AL191">
-        <v>0</v>
-      </c>
     </row>
-    <row r="192" spans="1:38">
+    <row r="192" spans="1:37">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -22753,11 +22177,8 @@
       <c r="AK192">
         <v>0</v>
       </c>
-      <c r="AL192">
-        <v>0</v>
-      </c>
     </row>
-    <row r="193" spans="1:38">
+    <row r="193" spans="1:37">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -22869,11 +22290,8 @@
       <c r="AK193">
         <v>0</v>
       </c>
-      <c r="AL193">
-        <v>0</v>
-      </c>
     </row>
-    <row r="194" spans="1:38">
+    <row r="194" spans="1:37">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -22985,11 +22403,8 @@
       <c r="AK194">
         <v>0</v>
       </c>
-      <c r="AL194">
-        <v>0</v>
-      </c>
     </row>
-    <row r="195" spans="1:38">
+    <row r="195" spans="1:37">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -23101,11 +22516,8 @@
       <c r="AK195">
         <v>0</v>
       </c>
-      <c r="AL195">
-        <v>0</v>
-      </c>
     </row>
-    <row r="196" spans="1:38">
+    <row r="196" spans="1:37">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -23217,11 +22629,8 @@
       <c r="AK196">
         <v>0</v>
       </c>
-      <c r="AL196">
-        <v>0</v>
-      </c>
     </row>
-    <row r="197" spans="1:38">
+    <row r="197" spans="1:37">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -23331,9 +22740,6 @@
         <v>0</v>
       </c>
       <c r="AK197">
-        <v>0</v>
-      </c>
-      <c r="AL197">
         <v>0</v>
       </c>
     </row>
